--- a/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-2,19; 3,05</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 1,42</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 5,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 0,12</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 0,06</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-32,88%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-42,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,91%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-64,53; 273,06</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-83,76; 140,38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-44,19; 86,61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-65,49; 9,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,99; 95,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,94; 3,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 5,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 3,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 6,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 4,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 2,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 5,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>209,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>383,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,15%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,51; 1492,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,33; 826,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,51; 1932,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 125,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,01; 75,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,82; 151,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 176,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,4; 97,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,48; 212,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 5,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 0,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 7,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 8,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 8,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 5,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 1,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 6,91</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>239,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>358,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,32%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-21,48; 1390,67</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,23; 1850,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,15; 275,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,54; 99,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,54; 301,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,76; 287,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,68; 77,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,47; 344,5</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 2,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 7,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 7,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 6,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 3,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 4,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 3,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 4,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>496,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,59; 1161,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,84; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,65; 2917,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,64; 245,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,45; 218,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,21; 121,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,23; 250,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 196,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,94; 234,24</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 2,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 5,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; -0,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 10,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 3,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; -1,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 4,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 2,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; -2,02</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,32; 98,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,02; 231,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,25; -4,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,0; 123,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,45; 46,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,38; -22,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,77; 85,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,55; 45,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,92; -30,0</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 6,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 7,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 9,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 9,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 5,86</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 6,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 5,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 5,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>384,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>563,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,83%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>162,35%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>210,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,19%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,72%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>12,62; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,68; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,96; 523,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,13; 550,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,75; 311,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,97; 515,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,53; 368,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,65; 453,74</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 4,48</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 4,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 2,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 0,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 3,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 0,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 3,59</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,2%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,59%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,27%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,3; 378,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,83; 102,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,34; 370,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,51; 43,48</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,02; 12,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,92; 63,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,81; 74,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,77; 6,15</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 87,07</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,6</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 1,01</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; -0,62</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 2,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 4,56</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 3,18</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 0,74</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 2,15</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 0,62</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,45%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,86%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,24%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,2%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,15%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,88; 21,29</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,4; 34,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,18; -17,36</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,42; 44,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,8; 77,53</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,63; 59,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,99; 14,93</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,36; 45,96</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,67; 13,63</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,83</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,75</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,14</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 3,25</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,19</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 1,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 1,91</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 99,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,38; 43,5</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,29; 115,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 55,49</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 32,59</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 39,73</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 56,27</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 29,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,25; 48,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,23</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,42</t>
+          <t>-3,3; 1,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 3,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,12</t>
+          <t>-7,54; 0,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 3,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,06</t>
+          <t>-4,58; -0,18</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,88%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-42,45%</t>
+          <t>-43,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>-42,67%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,4; 395,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,76; 140,38</t>
+          <t>-85,56; 123,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,21; 69,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 9,15</t>
+          <t>-66,39; 6,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,58; 84,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,94; 3,59</t>
+          <t>-65,26; -2,22</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,39</t>
+          <t>1,09; 5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,79</t>
+          <t>0,87; 6,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,49</t>
+          <t>1,62; 5,29</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>383,79%</t>
+          <t>364,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>67,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>107,15%</t>
+          <t>101,11%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,51; 1932,62</t>
+          <t>44,39; 1869,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 151,94</t>
+          <t>11,36; 150,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,48; 212,54</t>
+          <t>35,57; 204,96</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>4,7</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,21</t>
+          <t>1,76; 7,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,27</t>
+          <t>1,53; 8,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,91</t>
+          <t>2,7; 6,79</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>358,8%</t>
+          <t>349,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>114,12%</t>
+          <t>113,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>166,32%</t>
+          <t>161,89%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,23; 1850,38</t>
+          <t>32,61; 1818,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,54; 301,52</t>
+          <t>23,0; 299,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,47; 344,5</t>
+          <t>63,05; 339,55</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,1</t>
+          <t>-0,8; 2,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,51</t>
+          <t>1,58; 7,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,42</t>
+          <t>2,0; 9,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,55</t>
+          <t>-3,33; 2,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,74</t>
+          <t>1,26; 5,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,63</t>
+          <t>-0,08; 3,96</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>204,36%</t>
+          <t>75,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>496,79%</t>
+          <t>487,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>101,2%</t>
+          <t>126,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>114,69%</t>
+          <t>119,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>67,77%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 1161,6</t>
+          <t>-94,59; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,65; 2917,51</t>
+          <t>46,29; 2893,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,64; 245,22</t>
+          <t>29,48; 312,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 121,05</t>
+          <t>-52,09; 70,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,23; 250,8</t>
+          <t>28,08; 266,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,94; 234,24</t>
+          <t>-2,74; 205,88</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-4,58</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -0,52</t>
+          <t>-6,48; -0,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -1,75</t>
+          <t>-11,51; -1,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -2,02</t>
+          <t>-7,47; -1,99</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-71,22%</t>
+          <t>-71,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-55,3%</t>
+          <t>-54,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-57,97%</t>
+          <t>-57,58%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,25; -4,95</t>
+          <t>-94,32; -6,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-74,38; -22,41</t>
+          <t>-73,83; -20,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,92; -30,0</t>
+          <t>-72,65; -29,32</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,25</t>
+          <t>1,99; 7,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,86</t>
+          <t>-0,32; 5,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,52</t>
+          <t>1,6; 5,47</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>563,66%</t>
+          <t>557,4%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>181,72%</t>
+          <t>178,73%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>62,68; —</t>
+          <t>59,38; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 311,93</t>
+          <t>-11,3; 308,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>44,65; 453,74</t>
+          <t>42,48; 447,07</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,61</t>
+          <t>0,6; 4,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,9</t>
+          <t>-4,99; 3,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,59</t>
+          <t>-1,38; 3,06</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>133,52%</t>
+          <t>126,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>26,2%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>18,34; 370,99</t>
+          <t>14,28; 358,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 63,96</t>
+          <t>-60,15; 48,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 87,07</t>
+          <t>-24,33; 70,82</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,35</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,62</t>
+          <t>-4,38; -1,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,18</t>
+          <t>-1,87; 3,32</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,62</t>
+          <t>-3,68; 0,26</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-55,24%</t>
+          <t>-65,16%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>-24,28%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-76,18; -17,36</t>
+          <t>-87,3; -34,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 59,32</t>
+          <t>-22,79; 60,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 13,63</t>
+          <t>-56,46; 4,7</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,14</t>
+          <t>0,11; 1,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,29</t>
+          <t>-0,9; 1,92</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,91</t>
+          <t>0,05; 1,63</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>18,29; 115,88</t>
+          <t>4,21; 102,45</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 39,73</t>
+          <t>-12,77; 32,85</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>11,25; 48,01</t>
+          <t>1,11; 39,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,34</t>
+          <t>-1,3; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,05</t>
+          <t>-2,1; 3,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,18</t>
+          <t>-3,27; 1,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 3,97</t>
+          <t>-5,34; 4,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,09</t>
+          <t>-4,2; 5,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,03</t>
+          <t>-7,7; 0,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 3,15</t>
+          <t>-2,17; 3,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,6</t>
+          <t>-2,31; 3,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,18</t>
+          <t>-4,64; -0,11</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,4; 395,46</t>
+          <t>-47,42; 348,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,53; 273,06</t>
+          <t>-60,37; 269,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,56; 123,24</t>
+          <t>-87,21; 132,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 69,54</t>
+          <t>-50,32; 75,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 86,61</t>
+          <t>-39,78; 96,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 6,82</t>
+          <t>-68,5; 8,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 84,45</t>
+          <t>-33,21; 82,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 95,77</t>
+          <t>-36,05; 84,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,26; -2,22</t>
+          <t>-65,71; -1,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,95</t>
+          <t>0,21; 4,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,01</t>
+          <t>-0,56; 2,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,19</t>
+          <t>1,19; 5,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,8</t>
+          <t>-1,13; 5,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,54</t>
+          <t>-2,27; 3,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,75</t>
+          <t>0,89; 6,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 4,2</t>
+          <t>0,23; 4,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,4</t>
+          <t>-0,98; 2,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,29</t>
+          <t>1,79; 5,37</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 1492,85</t>
+          <t>-18,13; 1232,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 826,04</t>
+          <t>-57,69; 784,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,39; 1869,96</t>
+          <t>55,39; 1758,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 125,85</t>
+          <t>-16,65; 112,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 75,91</t>
+          <t>-31,9; 83,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 150,94</t>
+          <t>11,07; 165,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 176,82</t>
+          <t>4,6; 173,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 97,13</t>
+          <t>-25,14; 90,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,57; 204,96</t>
+          <t>42,37; 209,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,91</t>
+          <t>0,64; 5,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,87</t>
+          <t>-2,66; 0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,02</t>
+          <t>1,42; 7,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 8,44</t>
+          <t>1,0; 8,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,01</t>
+          <t>-3,24; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,23</t>
+          <t>1,56; 8,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,9</t>
+          <t>1,55; 6,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,46</t>
+          <t>-2,27; 1,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,79</t>
+          <t>2,51; 6,95</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 1390,67</t>
+          <t>-23,84; 1389,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,61; 1818,71</t>
+          <t>16,01; 1850,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 275,34</t>
+          <t>15,91; 303,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 99,86</t>
+          <t>-56,98; 103,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,0; 299,65</t>
+          <t>14,16; 275,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,76; 287,0</t>
+          <t>31,95; 298,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 77,25</t>
+          <t>-57,55; 79,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63,05; 339,55</t>
+          <t>53,32; 340,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,27</t>
+          <t>-0,82; 2,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,83</t>
+          <t>-0,53; 2,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,47</t>
+          <t>1,48; 7,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,3</t>
+          <t>2,18; 9,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,2</t>
+          <t>-0,93; 5,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 2,43</t>
+          <t>-3,3; 2,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,18</t>
+          <t>1,34; 5,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,75</t>
+          <t>0,08; 3,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,96</t>
+          <t>-0,03; 4,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-94,59; —</t>
+          <t>-86,23; 951,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,84; —</t>
+          <t>-62,77; 998,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,29; 2893,44</t>
+          <t>29,98; 2561,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,48; 312,08</t>
+          <t>33,02; 294,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 218,65</t>
+          <t>-17,8; 177,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 70,77</t>
+          <t>-52,23; 84,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,08; 266,66</t>
+          <t>35,17; 270,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 196,42</t>
+          <t>-2,49; 195,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 205,88</t>
+          <t>-1,31; 204,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,07</t>
+          <t>-5,21; 2,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,52</t>
+          <t>-2,86; 5,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -0,54</t>
+          <t>-6,4; -0,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 10,58</t>
+          <t>-2,27; 10,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 3,63</t>
+          <t>-8,33; 3,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,51; -1,64</t>
+          <t>-11,78; -1,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,99</t>
+          <t>-2,57; 4,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,77</t>
+          <t>-4,17; 2,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -1,99</t>
+          <t>-7,68; -1,77</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,32; 98,53</t>
+          <t>-81,18; 100,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 231,07</t>
+          <t>-47,65; 200,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-94,32; -6,14</t>
+          <t>-92,27; 8,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 123,2</t>
+          <t>-17,84; 127,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 46,42</t>
+          <t>-57,27; 44,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -20,3</t>
+          <t>-74,43; -22,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 85,26</t>
+          <t>-27,33; 77,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 45,95</t>
+          <t>-41,07; 43,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,65; -29,32</t>
+          <t>-74,09; -31,26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,01</t>
+          <t>0,77; 5,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,21</t>
+          <t>-1,28; 1,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,25</t>
+          <t>1,88; 6,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,67</t>
+          <t>1,53; 9,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,45</t>
+          <t>1,5; 9,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,78</t>
+          <t>-0,04; 5,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,64</t>
+          <t>1,95; 6,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,1</t>
+          <t>0,6; 5,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,47</t>
+          <t>1,43; 5,5</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,62; —</t>
+          <t>-42,48; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,44 +1881,44 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>59,38; —</t>
+          <t>47,39; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,96; 523,32</t>
+          <t>18,88; 496,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>29,13; 550,13</t>
+          <t>21,15; 536,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 308,7</t>
+          <t>-5,46; 339,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>59,97; 515,66</t>
+          <t>60,42; 585,28</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,53; 368,06</t>
+          <t>15,68; 408,19</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>42,48; 447,07</t>
+          <t>45,17; 500,19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,48</t>
+          <t>0,26; 4,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,07</t>
+          <t>-1,96; 1,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,43</t>
+          <t>0,61; 4,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,59</t>
+          <t>-2,97; 2,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,67</t>
+          <t>-5,06; 0,41</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,22</t>
+          <t>-5,13; 3,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,91</t>
+          <t>-0,65; 2,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,2</t>
+          <t>-2,99; 0,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,06</t>
+          <t>-1,49; 3,17</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>18,3; 378,33</t>
+          <t>0,41; 321,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-71,83; 102,62</t>
+          <t>-72,1; 93,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>14,28; 358,54</t>
+          <t>14,36; 362,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 43,48</t>
+          <t>-33,94; 44,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 12,82</t>
+          <t>-55,85; 6,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 48,98</t>
+          <t>-54,31; 46,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 74,22</t>
+          <t>-12,07; 75,7</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 6,15</t>
+          <t>-53,24; 7,59</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 70,82</t>
+          <t>-22,66; 76,72</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,6</t>
+          <t>-3,17; 0,41</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,01</t>
+          <t>-2,67; 0,93</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -1,05</t>
+          <t>-4,51; -1,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,37</t>
+          <t>-3,15; 2,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,56</t>
+          <t>-1,21; 4,66</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,32</t>
+          <t>-1,66; 3,2</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,74</t>
+          <t>-2,52; 0,71</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,15</t>
+          <t>-1,36; 2,09</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,26</t>
+          <t>-3,26; 0,33</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 21,29</t>
+          <t>-63,06; 18,32</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 34,68</t>
+          <t>-53,1; 30,89</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-87,3; -34,23</t>
+          <t>-88,81; -37,52</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 44,5</t>
+          <t>-36,57; 35,79</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 77,53</t>
+          <t>-14,97; 79,91</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 60,32</t>
+          <t>-19,59; 56,72</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 14,93</t>
+          <t>-38,54; 14,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 45,96</t>
+          <t>-21,04; 42,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 4,7</t>
+          <t>-51,62; 6,28</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,83</t>
+          <t>0,18; 1,93</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,75</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,9</t>
+          <t>0,18; 1,88</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,25</t>
+          <t>0,56; 3,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,9</t>
+          <t>-0,54; 1,77</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,92</t>
+          <t>-0,88; 1,85</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,19</t>
+          <t>0,67; 2,31</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,17</t>
+          <t>-0,34; 1,09</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,63</t>
+          <t>0,1; 1,71</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>4,37; 99,44</t>
+          <t>5,48; 102,5</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 43,5</t>
+          <t>-27,8; 37,1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>4,21; 102,45</t>
+          <t>7,85; 104,67</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,78; 55,49</t>
+          <t>6,83; 52,1</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 32,59</t>
+          <t>-7,71; 29,55</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 32,85</t>
+          <t>-12,63; 31,16</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>14,81; 56,27</t>
+          <t>14,21; 57,59</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 29,43</t>
+          <t>-7,28; 27,41</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>1,11; 39,86</t>
+          <t>2,42; 43,0</t>
         </is>
       </c>
     </row>
